--- a/_Datasheets/7Segment Byte Table.xlsx
+++ b/_Datasheets/7Segment Byte Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\_Project\Arduino\Document\Datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\_Project\Arduino\Projects\_Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="4935"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15750" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,6 +173,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,27 +504,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:N24"/>
+  <dimension ref="D1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.875" customWidth="1"/>
+    <col min="5" max="12" width="4.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
@@ -516,9 +530,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
@@ -543,8 +557,14 @@
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="L2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <v>0</v>
       </c>
@@ -569,16 +589,27 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" t="str">
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>BIN2HEX(N3)</f>
+        <v>FC</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3</f>
+        <v>11111100</v>
+      </c>
+      <c r="O3" t="str">
         <f>"{"&amp; E3 &amp; ", " &amp; F3 &amp; ", " &amp; G3 &amp; ", " &amp; H3 &amp; ", " &amp; I3 &amp; ", " &amp; J3 &amp; ", " &amp; K3 &amp; "}"</f>
         <v>{1, 1, 1, 1, 1, 1, 0}</v>
       </c>
-      <c r="N3" s="5" t="str">
-        <f>M3&amp;","&amp;M4&amp;","&amp;M5&amp;","&amp;M6&amp;","&amp;M7&amp;","&amp;M8&amp;","&amp;M9&amp;","&amp;M10&amp;","&amp;M11&amp;","&amp;M12&amp;","</f>
+      <c r="P3" s="5" t="str">
+        <f>O3&amp;","&amp;O4&amp;","&amp;O5&amp;","&amp;O6&amp;","&amp;O7&amp;","&amp;O8&amp;","&amp;O9&amp;","&amp;O10&amp;","&amp;O11&amp;","&amp;O12&amp;","</f>
         <v>{1, 1, 1, 1, 1, 1, 0},{0, 1, 1, 0, 0, 0, 0},{1, 1, 0, 1, 1, 0, 1},{1, 1, 1, 1, 0, 0, 1},{0, 1, 1, 0, 0, 1, 1},{1, 0, 1, 1, 0, 1, 1},{1, 0, 1, 1, 1, 1, 1},{1, 1, 1, 0, 0, 0, 0},{1, 1, 1, 1, 1, 1, 1},{1, 1, 1, 1, 0, 1, 1},</v>
       </c>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D4" s="2">
         <v>1</v>
       </c>
@@ -603,13 +634,24 @@
       <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" ref="M4:M12" si="0">"{"&amp; E4 &amp; ", " &amp; F4 &amp; ", " &amp; G4 &amp; ", " &amp; H4 &amp; ", " &amp; I4 &amp; ", " &amp; J4 &amp; ", " &amp; K4 &amp; "}"</f>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" ref="M4:M12" si="0">BIN2HEX(N4)</f>
+        <v>60</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N12" si="1">E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4</f>
+        <v>01100000</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O12" si="2">"{"&amp; E4 &amp; ", " &amp; F4 &amp; ", " &amp; G4 &amp; ", " &amp; H4 &amp; ", " &amp; I4 &amp; ", " &amp; J4 &amp; ", " &amp; K4 &amp; "}"</f>
         <v>{0, 1, 1, 0, 0, 0, 0}</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
         <v>2</v>
       </c>
@@ -634,13 +676,24 @@
       <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" t="str">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11011010</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
         <v>{1, 1, 0, 1, 1, 0, 1}</v>
       </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <v>3</v>
       </c>
@@ -665,13 +718,24 @@
       <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" t="str">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>F2</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11110010</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
         <v>{1, 1, 1, 1, 0, 0, 1}</v>
       </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D7" s="2">
         <v>4</v>
       </c>
@@ -696,13 +760,24 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="M7" t="str">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>01100110</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
         <v>{0, 1, 1, 0, 0, 1, 1}</v>
       </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>5</v>
       </c>
@@ -727,13 +802,24 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" t="str">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>B6</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10110110</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="2"/>
         <v>{1, 0, 1, 1, 0, 1, 1}</v>
       </c>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <v>6</v>
       </c>
@@ -758,13 +844,24 @@
       <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" t="str">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>BE</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10111110</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
         <v>{1, 0, 1, 1, 1, 1, 1}</v>
       </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10" s="2">
         <v>7</v>
       </c>
@@ -789,13 +886,24 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" t="str">
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>E0</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11100000</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="2"/>
         <v>{1, 1, 1, 0, 0, 0, 0}</v>
       </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
         <v>8</v>
       </c>
@@ -820,13 +928,24 @@
       <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" t="str">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>FE</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11111110</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="2"/>
         <v>{1, 1, 1, 1, 1, 1, 1}</v>
       </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>9</v>
       </c>
@@ -851,13 +970,24 @@
       <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" t="str">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>F6</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11110110</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="2"/>
         <v>{1, 1, 1, 1, 0, 1, 1}</v>
       </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
@@ -867,9 +997,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -894,8 +1024,12 @@
       <c r="K14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <v>0</v>
       </c>
@@ -920,16 +1054,27 @@
       <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="M15" t="str">
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f>BIN2HEX(N15)</f>
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15</f>
+        <v>00000011</v>
+      </c>
+      <c r="O15" t="str">
         <f>"{"&amp; E15 &amp; ", " &amp; F15 &amp; ", " &amp; G15 &amp; ", " &amp; H15 &amp; ", " &amp; I15 &amp; ", " &amp; J15 &amp; ", " &amp; K15 &amp; "}"</f>
         <v>{0, 0, 0, 0, 0, 0, 1}</v>
       </c>
-      <c r="N15" s="5" t="str">
-        <f>M15&amp;","&amp;M16&amp;","&amp;M17&amp;","&amp;M18&amp;","&amp;M19&amp;","&amp;M20&amp;","&amp;M21&amp;","&amp;M22&amp;","&amp;M23&amp;","&amp;M24&amp;","</f>
+      <c r="P15" s="5" t="str">
+        <f>O15&amp;","&amp;O16&amp;","&amp;O17&amp;","&amp;O18&amp;","&amp;O19&amp;","&amp;O20&amp;","&amp;O21&amp;","&amp;O22&amp;","&amp;O23&amp;","&amp;O24&amp;","</f>
         <v>{0, 0, 0, 0, 0, 0, 1},{1, 0, 0, 1, 1, 1, 1},{0, 0, 1, 0, 0, 1, 0},{0, 0, 0, 0, 1, 1, 0},{1, 0, 0, 1, 1, 0, 0},{0, 1, 0, 0, 1, 0, 0},{0, 1, 0, 0, 0, 0, 0},{0, 0, 0, 1, 1, 1, 1},{0, 0, 0, 0, 0, 0, 0},{0, 0, 0, 0, 1, 0, 0},</v>
       </c>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -954,13 +1099,24 @@
       <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="M16" t="str">
-        <f t="shared" ref="M16:M24" si="1">"{"&amp; E16 &amp; ", " &amp; F16 &amp; ", " &amp; G16 &amp; ", " &amp; H16 &amp; ", " &amp; I16 &amp; ", " &amp; J16 &amp; ", " &amp; K16 &amp; "}"</f>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" ref="M16:M24" si="3">BIN2HEX(N16)</f>
+        <v>9F</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" ref="N16:N24" si="4">E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16</f>
+        <v>10011111</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" ref="O16:O24" si="5">"{"&amp; E16 &amp; ", " &amp; F16 &amp; ", " &amp; G16 &amp; ", " &amp; H16 &amp; ", " &amp; I16 &amp; ", " &amp; J16 &amp; ", " &amp; K16 &amp; "}"</f>
         <v>{1, 0, 0, 1, 1, 1, 1}</v>
       </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <v>2</v>
       </c>
@@ -985,13 +1141,24 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" t="str">
-        <f t="shared" si="1"/>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00100101</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="5"/>
         <v>{0, 0, 1, 0, 0, 1, 0}</v>
       </c>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <v>3</v>
       </c>
@@ -1016,13 +1183,24 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" t="str">
-        <f t="shared" si="1"/>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00001101</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="5"/>
         <v>{0, 0, 0, 0, 1, 1, 0}</v>
       </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="2">
         <v>4</v>
       </c>
@@ -1047,13 +1225,24 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" si="1"/>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>10011001</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="5"/>
         <v>{1, 0, 0, 1, 1, 0, 0}</v>
       </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="2">
         <v>5</v>
       </c>
@@ -1078,13 +1267,24 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="1"/>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>01001001</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="5"/>
         <v>{0, 1, 0, 0, 1, 0, 0}</v>
       </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="2">
         <v>6</v>
       </c>
@@ -1109,13 +1309,24 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" si="1"/>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>01000001</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="5"/>
         <v>{0, 1, 0, 0, 0, 0, 0}</v>
       </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="2">
         <v>7</v>
       </c>
@@ -1140,13 +1351,24 @@
       <c r="K22" s="2">
         <v>1</v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" si="1"/>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>1F</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00011111</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="5"/>
         <v>{0, 0, 0, 1, 1, 1, 1}</v>
       </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="2">
         <v>8</v>
       </c>
@@ -1171,13 +1393,24 @@
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" t="str">
-        <f t="shared" si="1"/>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000001</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="5"/>
         <v>{0, 0, 0, 0, 0, 0, 0}</v>
       </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="2">
         <v>9</v>
       </c>
@@ -1202,18 +1435,29 @@
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" si="1"/>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00001001</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="5"/>
         <v>{0, 0, 0, 0, 1, 0, 0}</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D13:K13"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="N15:N24"/>
+    <mergeCell ref="P3:P12"/>
+    <mergeCell ref="P15:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
